--- a/아카데미 수업내용 7월/게임 기획서/김혜령 7월 8월.xlsx
+++ b/아카데미 수업내용 7월/게임 기획서/김혜령 7월 8월.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 7월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FEC2C6-0C8C-4AA8-A7BF-AC6FDC6EB52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11961221-C010-4C5A-B842-6B3CD24F2B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E97291B-3D6E-4DBD-A9A8-FA85541D62AA}"/>
+    <workbookView xWindow="6345" yWindow="7710" windowWidth="21945" windowHeight="13050" activeTab="2" xr2:uid="{7E97291B-3D6E-4DBD-A9A8-FA85541D62AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="아웃게임 컨텐츠" sheetId="1" r:id="rId1"/>
+    <sheet name="변수표" sheetId="2" r:id="rId2"/>
+    <sheet name="애니메이션" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
   <si>
     <t>분류 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +258,166 @@
   </si>
   <si>
     <t xml:space="preserve">시작시, 자원 보유량이 60개로 증가하지만 이동속도 10% 감소, 대쉬 거리 5%감소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복효율 0%일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복효율 1% ~ 99% 일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조절 가능하게 빼야할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간략한 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬 키입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미너 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3타 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4타 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4타 이동거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 오브젝트 소요시 공격력 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 소모량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 캔슬 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 이동공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동공격 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동공격 이동거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬공격 발동 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격과의 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번째 Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4타 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golie Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y bot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,11 +476,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE9FAC9-A054-410F-8955-4C32B1A81B13}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
@@ -1312,4 +1486,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E7FFBD-B972-4204-B126-4F69063DB15A}">
+  <dimension ref="B2:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05AACE8-EC92-4861-BE27-4B4EE9225797}">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/아카데미 수업내용 7월/게임 기획서/김혜령 7월 8월.xlsx
+++ b/아카데미 수업내용 7월/게임 기획서/김혜령 7월 8월.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 7월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11961221-C010-4C5A-B842-6B3CD24F2B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6D8B2-EA5F-4661-B920-D8B51150FF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="7710" windowWidth="21945" windowHeight="13050" activeTab="2" xr2:uid="{7E97291B-3D6E-4DBD-A9A8-FA85541D62AA}"/>
+    <workbookView xWindow="14790" yWindow="2295" windowWidth="21945" windowHeight="13050" activeTab="3" xr2:uid="{7E97291B-3D6E-4DBD-A9A8-FA85541D62AA}"/>
   </bookViews>
   <sheets>
     <sheet name="아웃게임 컨텐츠" sheetId="1" r:id="rId1"/>
     <sheet name="변수표" sheetId="2" r:id="rId2"/>
     <sheet name="애니메이션" sheetId="3" r:id="rId3"/>
+    <sheet name="스킬 2개" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="114">
   <si>
     <t>분류 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +419,66 @@
   </si>
   <si>
     <t>Y bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 100%에서 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 게이지 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 게이지 획득량 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 스킬은 인게임 그대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리는 그것을 변형한 느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격력 pc 스탯필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬에 스킬 공격력 계수 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격과 연결되는 플로우 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-- 조절 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 - 원거리 변경시 모아뒀던 게이지 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 리소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,9 +545,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E7FFBD-B972-4204-B126-4F69063DB15A}">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
@@ -1498,31 +1556,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -1533,27 +1589,27 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -1659,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05AACE8-EC92-4861-BE27-4B4EE9225797}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1714,4 +1770,98 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105E7D8-C039-4C3D-A4CD-482F92463D8D}">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>